--- a/index/indexと式調査.xlsx
+++ b/index/indexと式調査.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D79EB9-21C5-4E60-B2BC-D91D30BA49D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29577CB4-D79B-4BED-AFAC-A3945E3E6530}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,16 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
   <si>
-    <t>インデックスとORDER BYの動作確認</t>
-    <rPh sb="16" eb="18">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ANALYZE</t>
   </si>
   <si>
@@ -72,10 +62,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>psql -U postgres -p 5432 -d postgres -c "CREATE DATABASE dvdrental;"</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>pg_restore -U postgres -d dvdrental ./dvdrental.tar</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -363,6 +349,22 @@
       <t>ハッセイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>インデックスと式の動作確認</t>
+    <rPh sb="7" eb="8">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d postgres -c "CREATE DATABASE dvdrental TEMPLATE = template0 ENCODING = 'UTF8' LC_COLLATE = 'C' LC_CTYPE = 'C'"</t>
   </si>
 </sst>
 </file>
@@ -727,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -751,367 +753,367 @@
   <sheetData>
     <row r="1" spans="2:2" s="2" customFormat="1" ht="28.5">
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:2" s="5" customFormat="1">
       <c r="B6" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:2" s="3" customFormat="1">
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="2:2" s="3" customFormat="1">
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:2" s="3" customFormat="1">
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:2" s="3" customFormat="1">
       <c r="B12" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:2" s="3" customFormat="1">
       <c r="B13" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:2" s="3" customFormat="1">
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:2" s="3" customFormat="1">
       <c r="B15" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="2:2" s="3" customFormat="1">
       <c r="B16" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="2:2" s="3" customFormat="1">
       <c r="B19" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:2" s="3" customFormat="1">
       <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="2:2" s="3" customFormat="1">
       <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:2" s="3" customFormat="1">
       <c r="B22" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="2:2" s="3" customFormat="1">
       <c r="B23" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:2" s="3" customFormat="1">
       <c r="B24" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="2:2" s="3" customFormat="1">
       <c r="B25" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="2:2" s="3" customFormat="1">
       <c r="B26" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="2:2" s="3" customFormat="1">
       <c r="B27" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="2:2" s="3" customFormat="1">
       <c r="B30" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="2:2" s="3" customFormat="1">
       <c r="B31" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="2:2" s="3" customFormat="1">
       <c r="B32" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="2:2" s="3" customFormat="1">
       <c r="B33" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="2:2" s="3" customFormat="1">
       <c r="B34" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="2:2" s="3" customFormat="1">
       <c r="B35" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="2:2" s="3" customFormat="1">
       <c r="B36" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="2:2" s="3" customFormat="1">
       <c r="B37" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="2:2" s="3" customFormat="1">
       <c r="B41" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="2:2" s="3" customFormat="1">
       <c r="B42" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="2:2" s="3" customFormat="1">
       <c r="B43" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="2:2" s="3" customFormat="1">
       <c r="B44" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="2:2" s="3" customFormat="1">
       <c r="B45" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="2:2" s="3" customFormat="1">
       <c r="B46" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="2:2" s="3" customFormat="1">
       <c r="B47" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="2:2" s="3" customFormat="1">
       <c r="B48" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="2:2" s="3" customFormat="1">
       <c r="B49" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="2:2" s="3" customFormat="1">
       <c r="B50" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="2:2" s="3" customFormat="1">
       <c r="B51" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="2:2" s="3" customFormat="1">
       <c r="B54" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="2:2" s="3" customFormat="1">
       <c r="B55" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="2:2" s="3" customFormat="1">
       <c r="B56" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="2:2" s="3" customFormat="1">
       <c r="B57" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="2:2" s="3" customFormat="1">
       <c r="B58" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="2:2" s="3" customFormat="1">
       <c r="B59" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="2:2" s="3" customFormat="1">
       <c r="B60" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="2:2" s="3" customFormat="1">
       <c r="B61" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="2:2" s="3" customFormat="1">
       <c r="B62" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="2:2" s="3" customFormat="1">
       <c r="B65" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="2:2" s="3" customFormat="1">
       <c r="B66" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="2:2" s="3" customFormat="1">
       <c r="B67" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="2:2" s="3" customFormat="1">
       <c r="B70" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" spans="2:2" s="3" customFormat="1">
       <c r="B71" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="2:2" s="3" customFormat="1">
       <c r="B72" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="2:2" s="3" customFormat="1">
       <c r="B73" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="2:2" s="3" customFormat="1">
       <c r="B74" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" spans="2:2" s="3" customFormat="1">
       <c r="B75" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="2:2" s="3" customFormat="1">
       <c r="B76" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="2:2" s="3" customFormat="1">
       <c r="B77" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="2:2" s="3" customFormat="1">
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="79" spans="2:2" s="3" customFormat="1">
       <c r="B79" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="2:2" s="3" customFormat="1">
       <c r="B80" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
